--- a/漢字（かんじ）/h.xlsx
+++ b/漢字（かんじ）/h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C6E2D3-909D-4A67-8DF5-B026F368366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B5C14E-8C75-4891-9DB1-8105F28C8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2304" yWindow="1992" windowWidth="11640" windowHeight="10968" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="216" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="は" sheetId="1" r:id="rId1"/>
@@ -551,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花御堂｜はなみどう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日陰｜ひかげ
 日中｜ひなか</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,6 +781,11 @@
   <si>
     <t>包括｜ほうかつ
 包含｜ほうがん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花御堂｜はなみどう
+花柄｜はながら</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1156,7 +1157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1172,8 +1173,8 @@
       <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>121</v>
+      <c r="G2" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1212,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -1318,7 +1319,7 @@
         <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1332,13 +1333,13 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1352,10 +1353,10 @@
         <v>120</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1363,19 +1364,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1419,7 +1420,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1455,7 +1456,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1522,7 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1552,7 +1553,7 @@
         <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1566,7 +1567,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1599,10 +1600,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1624,7 +1625,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1654,10 +1655,10 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1668,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1701,7 +1702,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1712,7 +1713,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1809,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1865,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C27756B-0CAB-4F08-AF27-3674FDF1533A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1904,16 +1905,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1932,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1946,7 +1947,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1954,10 +1955,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1968,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1979,7 +1980,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1987,10 +1988,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2017,10 +2018,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/h.xlsx
+++ b/漢字（かんじ）/h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B5C14E-8C75-4891-9DB1-8105F28C8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80720F3C-A04B-456A-99DE-3814076276DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="216" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="は" sheetId="1" r:id="rId1"/>
@@ -665,17 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表現｜ひょうげん
-表彰｜ひょうしょう
-表示｜ひょうじ
-表面｜ひょうめん
-代表｜だいひょう
-価格表｜かかくひょう
-図表｜ずひょう
-成分表｜せいぶんひょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>披露｜ひろう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,6 +775,18 @@
   <si>
     <t>花御堂｜はなみどう
 花柄｜はながら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表現｜ひょうげん
+表彰｜ひょうしょう
+表示｜ひょうじ
+表面｜ひょうめん
+辞表｜じひょう
+代表｜だいひょう
+価格表｜かかくひょう
+図表｜ずひょう
+成分表｜せいぶんひょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1174,7 +1175,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1319,7 +1320,7 @@
         <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1333,13 +1334,13 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1353,10 +1354,10 @@
         <v>120</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1370,13 +1371,13 @@
         <v>124</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1455,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5A9018-09E5-4CA0-AFA1-8EAC07CBA8C2}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1600,10 +1601,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1625,7 +1626,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1694,7 +1695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="162" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1936,7 +1937,7 @@
         <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1947,7 +1948,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1955,10 +1956,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1969,7 +1970,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1988,10 +1989,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2021,7 +2022,7 @@
         <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/h.xlsx
+++ b/漢字（かんじ）/h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80720F3C-A04B-456A-99DE-3814076276DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C5EEFE-2F1F-4F37-B619-6DE8329C6729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="は" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
   <si>
     <t>葉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,11 +511,6 @@
   </si>
   <si>
     <t>標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>評価｜ひょうか
-風評｜ふうひょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -636,13 +631,6 @@
   </si>
   <si>
     <t>放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保険｜ほけん
-保養｜ほよう
-保有｜ほゆう
-保湿｜ほしつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -701,21 +689,6 @@
     <t>候補｜こうほ
 補強｜ほきょう
 候補者｜こうほしゃ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開発｜かいはつ
-発言｜はつげん
-発売｜はつばい
-発電｜はつでん
-発送｜はっそう
-発想｜はっそう
-発音｜はつおん
-発明｜はつめい
-発揮｜はっき
-発達｜はったつ
-揮発｜きはつ
-揮発性｜きはつせい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,6 +760,47 @@
 価格表｜かかくひょう
 図表｜ずひょう
 成分表｜せいぶんひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開発｜かいはつ
+発言｜はつげん
+発見｜はっけん
+発売｜はつばい
+発電｜はつでん
+発車｜はっしゃ
+発送｜はっそう
+発想｜はっそう
+発音｜はつおん
+発明｜はつめい
+発達｜はったつ
+発揮｜はっき
+発達｜はったつ
+揮発｜きはつ
+揮発性｜きはつせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評価｜ひょうか
+風評｜ふうひょう
+批評｜ひひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批評｜ひひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保険｜ほけん
+保養｜ほよう
+保有｜ほゆう
+保湿｜ほしつ
+保証｜ほしょう
+保障｜ほしょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1175,7 +1189,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1214,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -1271,7 +1285,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>42</v>
@@ -1291,7 +1305,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -1303,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="216" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="270" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +1334,7 @@
         <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1334,13 +1348,13 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1351,13 +1365,13 @@
         <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1365,19 +1379,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1421,7 +1435,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1454,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5A9018-09E5-4CA0-AFA1-8EAC07CBA8C2}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1537,7 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1537,13 +1551,13 @@
         <v>105</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1551,10 +1565,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1568,7 +1582,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1601,10 +1615,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1618,26 +1632,26 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1645,76 +1659,87 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="162" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>125</v>
+      <c r="C20" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1835,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1867,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C27756B-0CAB-4F08-AF27-3674FDF1533A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1898,7 +1923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1906,16 +1931,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1934,10 +1959,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1948,7 +1973,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1956,10 +1981,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1970,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1981,7 +2006,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1989,10 +2014,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2019,10 +2044,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/h.xlsx
+++ b/漢字（かんじ）/h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C5EEFE-2F1F-4F37-B619-6DE8329C6729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98260907-32E4-4C96-BE65-837FD7C5F952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,10 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大半｜たいはん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日陰｜ひかげ
 日中｜ひなか</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -738,16 +734,6 @@
   </si>
   <si>
     <t>包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括｜ほうかつ
-包含｜ほうがん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花御堂｜はなみどう
-花柄｜はながら</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -801,6 +787,25 @@
 保湿｜ほしつ
 保証｜ほしょう
 保障｜ほしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花御堂｜はなみどう
+花柄｜はながら
+花火｜はなび
+花火大会｜はなびたいかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大半｜たいはん
+半額｜はんがく
+半袖｜はんそで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括｜ほうかつ
+包含｜ほうがん
+包丁｜ほうちょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1148,7 +1153,7 @@
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="27.21875" style="1" customWidth="1"/>
     <col min="4" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1172,7 +1177,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1228,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -1334,7 +1339,7 @@
         <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1348,30 +1353,30 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>119</v>
+      <c r="C12" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1379,19 +1384,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1435,7 +1440,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1537,7 +1542,7 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1568,7 +1573,7 @@
         <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1582,7 +1587,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1615,10 +1620,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1637,10 +1642,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1651,7 +1656,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1681,10 +1686,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1695,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1717,7 +1722,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -1728,7 +1733,7 @@
         <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1739,7 +1744,7 @@
         <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1840,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1892,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C27756B-0CAB-4F08-AF27-3674FDF1533A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1931,16 +1936,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1959,10 +1964,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1973,7 +1978,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1981,10 +1986,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1995,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -2006,18 +2011,18 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2044,10 +2049,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/h.xlsx
+++ b/漢字（かんじ）/h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98260907-32E4-4C96-BE65-837FD7C5F952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C12312-4331-4210-A949-D22DBB8463D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="は" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="168">
   <si>
     <t>葉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -806,6 +806,22 @@
     <t>包括｜ほうかつ
 包含｜ほうがん
 包丁｜ほうちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍手｜はくしゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博物館｜はくぶつかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1316,13 +1332,13 @@
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="270" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1333,13 +1349,13 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1353,16 +1369,16 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="270" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1373,10 +1389,13 @@
         <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1390,13 +1409,13 @@
         <v>122</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1409,6 +1428,12 @@
       <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -1419,6 +1444,15 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1897,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C27756B-0CAB-4F08-AF27-3674FDF1533A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/漢字（かんじ）/h.xlsx
+++ b/漢字（かんじ）/h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C12312-4331-4210-A949-D22DBB8463D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1036A31E-D648-41C5-8015-4218929B6549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="は" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
   <si>
     <t>葉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,10 +276,6 @@
   </si>
   <si>
     <t>弊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲弊｜ひへい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,6 +818,20 @@
   </si>
   <si>
     <t>博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵器｜へいき
+兵長｜へいちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲弊｜ひへい
+弊社｜へいしゃ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1175,22 +1185,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.45">
@@ -1210,7 +1220,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1232,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
@@ -1249,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -1269,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1306,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>42</v>
@@ -1326,16 +1336,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1363,19 +1373,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="270" x14ac:dyDescent="0.45">
@@ -1383,19 +1393,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1403,100 +1413,100 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="108" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1521,22 +1531,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1550,13 +1560,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1570,13 +1580,13 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1584,19 +1594,19 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1604,10 +1614,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1618,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1632,10 +1642,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1654,10 +1664,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1665,10 +1675,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1676,10 +1686,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1687,10 +1697,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1698,10 +1708,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1712,7 +1722,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -1720,10 +1730,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1734,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1750,35 +1760,35 @@
     </row>
     <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA12474C-6BFB-48E6-A07D-AE26ED983A24}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1803,13 +1813,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1838,10 +1848,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1852,7 +1862,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -1860,10 +1870,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1874,7 +1884,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1888,15 +1898,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
+      <c r="C9" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1904,10 +1914,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1915,10 +1925,21 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>92</v>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1944,22 +1965,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1970,16 +1991,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1998,32 +2019,32 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -2034,7 +2055,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -2045,7 +2066,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -2053,10 +2074,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2083,10 +2104,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/h.xlsx
+++ b/漢字（かんじ）/h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1036A31E-D648-41C5-8015-4218929B6549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B6BBF-DDD2-46B7-A714-BA4170B6E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="172">
   <si>
     <t>葉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,12 +556,6 @@
     <t>造反｜ぞうはん
 反対｜はんたい
 反映｜はんえい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標｜もくひょう
-標本｜ひょうほん
-標識｜ひょうしき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -832,6 +826,22 @@
   <si>
     <t>疲弊｜ひへい
 弊社｜へいしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標｜もくひょう
+標本｜ひょうほん
+標識｜ひょうしき
+標準｜ひょうじゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差｜へんさ
+偏差値｜へんさち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1259,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -1342,10 +1352,10 @@
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1382,10 +1392,10 @@
         <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="270" x14ac:dyDescent="0.45">
@@ -1396,7 +1406,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>106</v>
@@ -1405,7 +1415,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1419,13 +1429,13 @@
         <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1439,10 +1449,10 @@
         <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -1456,13 +1466,13 @@
         <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1484,7 +1494,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1519,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5A9018-09E5-4CA0-AFA1-8EAC07CBA8C2}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1596,7 @@
         <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1664,10 +1674,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1686,10 +1696,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1700,7 +1710,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1730,10 +1740,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1744,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1766,7 +1776,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -1777,10 +1787,10 @@
         <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1799,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA12474C-6BFB-48E6-A07D-AE26ED983A24}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1876,70 +1886,81 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1991,16 +2012,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2019,10 +2040,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -2033,7 +2054,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2041,10 +2062,10 @@
         <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -2055,7 +2076,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -2066,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -2074,10 +2095,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2104,10 +2125,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
